--- a/Employee_Reports28/Mohamed Farkan Mohamed Sareek Q0011.xlsx
+++ b/Employee_Reports28/Mohamed Farkan Mohamed Sareek Q0011.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -556,11 +553,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-42</v>
+        <v>-50</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
